--- a/Figures and Tables/table3.xlsx
+++ b/Figures and Tables/table3.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="80">
+  <si>
+    <t xml:space="preserve">Mann-Whitney U test on aggregated health parameters across India.</t>
+  </si>
   <si>
     <t xml:space="preserve">Aggregated Factor (%)</t>
   </si>
@@ -344,12 +347,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -369,18 +372,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.63"/>
   </cols>
   <sheetData>
@@ -388,433 +391,442 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="1" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="1" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="1" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="1" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="1" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="1" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="1" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="D20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="1" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="D24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="1" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="E25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="1" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="1" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A21:E21"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A22:E22"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
